--- a/assets/disciplinas/LOQ4054.xlsx
+++ b/assets/disciplinas/LOQ4054.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EB-6,EQD-6,EQN-7</t>
+    <t>EB-7,EQD-6,EQN-7</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOQ4054.xlsx
+++ b/assets/disciplinas/LOQ4054.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar ao graduando conhecimentos da teoria básica dos conceitos de transferência de massa com posterior aplicação aos balanços de massa visando obtenção, para os diversos processos físicos e químicos, em particularidade os sistemas estagnados e convectivos, conhecimento do fluxo de transferência de massa, do perfil de concentração, das resistências que prediz o transporte entre as fases.</t>
+    <t>5840841 - Gilberto Garcia Cortez</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840841 - Gilberto Garcia Cortez</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1- Introdução:2- Coeficiente de difusão:3- Concentrações, velocidade e fluxos:4 -Equações da continuidade em transferência de massa:5- Difusão em regime permanente sem reação química:6- Difusão com reação química:7- Transferência de massa entre fases.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1- Introdução: Transferência de massa: Definição. Classificação das operações que envolvem transferência de massa. Contribuições à transferência de massa. Tipos de difusão.2- Coeficiente de difusão: Considerações. Difusão em gases: Análise da primeira lei de Fick; O coeficiente de difusão para gases. Estimativa do coeficiente de difusão a partir de um coeficiente de difusão conhecido em alta temperatura e pressão. Coeficiente de difusão de um soluto em uma mistura gasosa estagnada de multicomponentes. Difusão em líquidos. Difusão em sólidos.3- Concentrações, velocidade e fluxos: Concentração. Velocidade. Fluxo. A equação de Stefan – Maxwel.4 - Equações da continuidade em transferência de massa: Equações da continuidade molar de um soluto. Regime transiente sem/com velocidade do meio nula. Meio sem e com reação química.5- Difusão em regime permanente sem reação química: Difusão Unidimensional em regime permanente. Difusão através de filme gasoso inerte e estagnado. Difusão pseudo-estacionária num filme gasoso estagnado. Contradifusão equimolar. Taxa molar em esferas isoladas. Difusão em membranas.6- Difusão em regime permanente com reação química: Difusão em regime permanente com reação química heterogênea na superfície de uma partícula catalítica não porosa. Difusão com reação química heterogênea na superfície de uma partícula não catalítica e não porosa. Difusão intrapartícula com reação química heterogênea. Difusão em regime permanente com reação química homogênea.7- Transferência de massa entre fases: Teoria das duas resistências. Coeficiente individual e global de transferência de massa. Coeficientes globais de transferência de massa. Coeficientes volumétricos de transferência de massa para torres de recheios. Balanço macroscópio de matéria. Operações contínuas.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por meio de provas escritas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota Final (NF) será calculada da seguinte maneira: NF = (P1 + 2*P2)/3.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma Prova Escrita (PE) e a Média de Recuperação (MR) será calculada pela fórmula: MR = (NF + PE)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) CREMASCO, M. A. Fundamentos de Transferência de Massa. Campinas: Editora Unicamp; 2008-2009.2) INCROPERA, F. P.; WITT, D. P. Fundamentos de Transferência de Calor e Massa. Rio de Janeiro: LTC, 2008.3) Bird, R. B.; STEWART, W. E.; LIGHTFOOT, E. N. Fenômenos de Transporte. 2ª ed. Rio de Janeiro: LTC, 2004.4) BENNETT, C. O.; MYERS, J. E. Fenômeno de Transporte: Quantidade de Movimento, Calor e Massa. São Paulo: McGrawc- Hill, 1978.5) COULSON, J. M.; RICHARDSON, J. F.; BACKHURST, J. R.; HARKER, J. H. Fluid Flow, Heat Transfer and Mass Transfer. In: COULSON &amp; Richardson Series - Chemical Engineering. 5th ed. Pergamon Press, Oxford, 1996. v.16) FOUST, A. S.; Wenzel, L. A.; CLUMP, C. W.; MAUS, L.; ANDERSON, L. B. Princípios das Operações Unitárias. 2ª ed. Rio de Janeiro: Guanabara Dois, 1982.7) PERRY's Chemical Engineers Handbook. Editor in Chief Don W. Green; Late Editor Robert H. Perry. New York: McGraw-Hill, 2008.8) WELTY, J. R.; PIGFORD, R. L.; WILKE, C. R. Fundamentals of Momentum, Heat, and Mass Transfer. 5th ed. USA: John Wiley &amp; Sons, Inc, 2008.9) POLING, B. E.; PRAUSNITZ, J. M.; O'CONNELL, J. The Properties of Gases and Liquids. 5th ed. New York: McGraw-Hill, 2000.10) CALDAS, J. N.; DE LACERDA, A. I.; VELOSO, E.; PASCHOAL, L. C. M. Internos de Torres: Pratos &amp; Recheios. 2ª ed. Rio de Janeiro: Editora Interciência, 2007.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4054.xlsx
+++ b/assets/disciplinas/LOQ4054.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar ao graduando conhecimentos da teoria básica dos conceitos de transferência de massa com posterior aplicação aos balanços de massa visando obtenção, para os diversos processos físicos e químicos, em particularidade os sistemas estagnados e convectivos, conhecimento do fluxo de transferência de massa, do perfil de concentração, das resistências que prediz o transporte entre as fases.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Providing the student knowledge of basic concepts of the theory of mass transfer with subsequent application to obtain mass balances aiming for the different physical and chemical processes, in peculiarity stagnant and convective systems, knowledge of the flow of mass transfer, the profile concentration of resistors that predicts the transport between the phases.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840841 - Gilberto Garcia Cortez</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Providing the student knowledge of basic concepts of the theory of mass transfer with subsequent application to obtain mass balances aiming for the different physical and chemical processes, in peculiarity stagnant and convective systems, knowledge of the flow of mass transfer, the profile concentration of resistors that predicts the transport between the phases.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1- Introdução:2- Coeficiente de difusão:3- Concentrações, velocidade e fluxos:4 -Equações da continuidade em transferência de massa:5- Difusão em regime permanente sem reação química:6- Difusão com reação química:7- Transferência de massa entre fases.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1- Introdução: Transferência de massa: Definição. Classificação das operações que envolvem transferência de massa. Contribuições à transferência de massa. Tipos de difusão.2- Coeficiente de difusão: Considerações. Difusão em gases: Análise da primeira lei de Fick; O coeficiente de difusão para gases. Estimativa do coeficiente de difusão a partir de um coeficiente de difusão conhecido em alta temperatura e pressão. Coeficiente de difusão de um soluto em uma mistura gasosa estagnada de multicomponentes. Difusão em líquidos. Difusão em sólidos.3- Concentrações, velocidade e fluxos: Concentração. Velocidade. Fluxo. A equação de Stefan – Maxwel.4 - Equações da continuidade em transferência de massa: Equações da continuidade molar de um soluto. Regime transiente sem/com velocidade do meio nula. Meio sem e com reação química.5- Difusão em regime permanente sem reação química: Difusão Unidimensional em regime permanente. Difusão através de filme gasoso inerte e estagnado. Difusão pseudo-estacionária num filme gasoso estagnado. Contradifusão equimolar. Taxa molar em esferas isoladas. Difusão em membranas.6- Difusão em regime permanente com reação química: Difusão em regime permanente com reação química heterogênea na superfície de uma partícula catalítica não porosa. Difusão com reação química heterogênea na superfície de uma partícula não catalítica e não porosa. Difusão intrapartícula com reação química heterogênea. Difusão em regime permanente com reação química homogênea.7- Transferência de massa entre fases: Teoria das duas resistências. Coeficiente individual e global de transferência de massa. Coeficientes globais de transferência de massa. Coeficientes volumétricos de transferência de massa para torres de recheios. Balanço macroscópio de matéria. Operações contínuas.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita por meio de provas escritas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de provas escritas.</t>
+    <t>A Nota Final (NF) será calculada da seguinte maneira: NF = (P1 + 2*P2)/3.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota Final (NF) será calculada da seguinte maneira: NF = (P1 + 2*P2)/3.</t>
+    <t>A recuperação será feita por meio de uma Prova Escrita (PE) e a Média de Recuperação (MR) será calculada pela fórmula: MR = (NF + PE)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma Prova Escrita (PE) e a Média de Recuperação (MR) será calculada pela fórmula: MR = (NF + PE)/2.</t>
+    <t>1) CREMASCO, M. A. Fundamentos de Transferência de Massa. Campinas: Editora Unicamp; 2008-2009.2) INCROPERA, F. P.; WITT, D. P. Fundamentos de Transferência de Calor e Massa. Rio de Janeiro: LTC, 2008.3) Bird, R. B.; STEWART, W. E.; LIGHTFOOT, E. N. Fenômenos de Transporte. 2ª ed. Rio de Janeiro: LTC, 2004.4) BENNETT, C. O.; MYERS, J. E. Fenômeno de Transporte: Quantidade de Movimento, Calor e Massa. São Paulo: McGrawc- Hill, 1978.5) COULSON, J. M.; RICHARDSON, J. F.; BACKHURST, J. R.; HARKER, J. H. Fluid Flow, Heat Transfer and Mass Transfer. In: COULSON &amp; Richardson Series - Chemical Engineering. 5th ed. Pergamon Press, Oxford, 1996. v.16) FOUST, A. S.; Wenzel, L. A.; CLUMP, C. W.; MAUS, L.; ANDERSON, L. B. Princípios das Operações Unitárias. 2ª ed. Rio de Janeiro: Guanabara Dois, 1982.7) PERRY's Chemical Engineers Handbook. Editor in Chief Don W. Green; Late Editor Robert H. Perry. New York: McGraw-Hill, 2008.8) WELTY, J. R.; PIGFORD, R. L.; WILKE, C. R. Fundamentals of Momentum, Heat, and Mass Transfer. 5th ed. USA: John Wiley &amp; Sons, Inc, 2008.9) POLING, B. E.; PRAUSNITZ, J. M.; O'CONNELL, J. The Properties of Gases and Liquids. 5th ed. New York: McGraw-Hill, 2000.10) CALDAS, J. N.; DE LACERDA, A. I.; VELOSO, E.; PASCHOAL, L. C. M. Internos de Torres: Pratos &amp; Recheios. 2ª ed. Rio de Janeiro: Editora Interciência, 2007.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
